--- a/resources/experiment 1/predictions/single/RandomForestRegressor/average time/Ictus.xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/average time/Ictus.xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21.28234517646173</v>
+        <v>21.27851028916892</v>
       </c>
       <c r="B2" t="n">
-        <v>15.71852920625683</v>
+        <v>15.55683831460628</v>
       </c>
       <c r="C2" t="n">
-        <v>26.30343364470369</v>
+        <v>26.42125989957814</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20.17583570818015</v>
+        <v>20.41054398523</v>
       </c>
       <c r="B3" t="n">
-        <v>13.48655698966573</v>
+        <v>12.55971118876687</v>
       </c>
       <c r="C3" t="n">
-        <v>28.91511472569714</v>
+        <v>28.99418136998837</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20.54009809946081</v>
+        <v>20.48175051692525</v>
       </c>
       <c r="B4" t="n">
-        <v>13.9088106859669</v>
+        <v>14.18977926189117</v>
       </c>
       <c r="C4" t="n">
-        <v>27.63989572720292</v>
+        <v>27.64582283757333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>24.80877218724895</v>
+        <v>24.90533879033199</v>
       </c>
       <c r="B5" t="n">
-        <v>15.59924533312663</v>
+        <v>15.57380600711907</v>
       </c>
       <c r="C5" t="n">
-        <v>33.67582345613394</v>
+        <v>33.72910077575387</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>26.15838834093618</v>
+        <v>26.14371771818085</v>
       </c>
       <c r="B6" t="n">
-        <v>18.55676618051818</v>
+        <v>18.784123780606</v>
       </c>
       <c r="C6" t="n">
-        <v>33.65747000341935</v>
+        <v>33.81043031600917</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>19.31680804654802</v>
+        <v>19.33553917934039</v>
       </c>
       <c r="B7" t="n">
-        <v>15.04414805608316</v>
+        <v>14.89028513076683</v>
       </c>
       <c r="C7" t="n">
-        <v>24.25969681845908</v>
+        <v>24.32551876465234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10.12935826236492</v>
+        <v>10.10494786249335</v>
       </c>
       <c r="B8" t="n">
-        <v>4.351434690398045</v>
+        <v>4.383035274927962</v>
       </c>
       <c r="C8" t="n">
-        <v>16.3586995046033</v>
+        <v>16.02588343053751</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>24.59317890529456</v>
+        <v>24.36126516973622</v>
       </c>
       <c r="B9" t="n">
-        <v>17.65248874486488</v>
+        <v>18.32602359876933</v>
       </c>
       <c r="C9" t="n">
-        <v>31.08414640488312</v>
+        <v>30.84520422215541</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10.15042963519009</v>
+        <v>10.17521119104675</v>
       </c>
       <c r="B10" t="n">
-        <v>5.1075096294289</v>
+        <v>5.153487853980469</v>
       </c>
       <c r="C10" t="n">
-        <v>17.18730435056377</v>
+        <v>17.15549315441622</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18.05815108889345</v>
+        <v>18.1259506470778</v>
       </c>
       <c r="B11" t="n">
-        <v>12.31680130265578</v>
+        <v>12.30201517077239</v>
       </c>
       <c r="C11" t="n">
-        <v>23.74723803658443</v>
+        <v>23.80353978360296</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>26.95908427189839</v>
+        <v>26.89618997383307</v>
       </c>
       <c r="B12" t="n">
-        <v>20.2752457679795</v>
+        <v>19.87579329386602</v>
       </c>
       <c r="C12" t="n">
-        <v>34.62634862086696</v>
+        <v>34.5491322018315</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.39445492561557</v>
+        <v>12.3731121221789</v>
       </c>
       <c r="B13" t="n">
-        <v>6.617363532572623</v>
+        <v>6.672386542026537</v>
       </c>
       <c r="C13" t="n">
-        <v>20.23819438133621</v>
+        <v>20.4214111117216</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14.9547569284676</v>
+        <v>14.90595555650731</v>
       </c>
       <c r="B14" t="n">
-        <v>8.983838535144322</v>
+        <v>9.034286297458346</v>
       </c>
       <c r="C14" t="n">
-        <v>21.86104419264381</v>
+        <v>21.88222348580927</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>28.94708655935366</v>
+        <v>29.09134814925604</v>
       </c>
       <c r="B15" t="n">
-        <v>20.36819224989301</v>
+        <v>20.066136079619</v>
       </c>
       <c r="C15" t="n">
-        <v>39.39519170266297</v>
+        <v>39.81964163521254</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>26.13697588458277</v>
+        <v>26.15277604508424</v>
       </c>
       <c r="B16" t="n">
-        <v>18.84681793262399</v>
+        <v>19.00166449813064</v>
       </c>
       <c r="C16" t="n">
-        <v>33.485212644299</v>
+        <v>33.72279404297961</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>27.10931194031662</v>
+        <v>27.01878608663255</v>
       </c>
       <c r="B17" t="n">
-        <v>20.28983566274572</v>
+        <v>20.00892014559372</v>
       </c>
       <c r="C17" t="n">
-        <v>34.47890204495471</v>
+        <v>34.37920474010433</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>20.56037165750273</v>
+        <v>20.451363408095</v>
       </c>
       <c r="B18" t="n">
-        <v>13.90526336754984</v>
+        <v>13.55979942888981</v>
       </c>
       <c r="C18" t="n">
-        <v>28.2480791924012</v>
+        <v>28.35570837133776</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18.49555286112001</v>
+        <v>18.48415737433077</v>
       </c>
       <c r="B19" t="n">
-        <v>12.56906370110512</v>
+        <v>12.54777407637926</v>
       </c>
       <c r="C19" t="n">
-        <v>25.81489003005545</v>
+        <v>25.68848774323577</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>29.84113133819949</v>
+        <v>29.78967671897496</v>
       </c>
       <c r="B20" t="n">
-        <v>21.08257996744136</v>
+        <v>21.81758836940899</v>
       </c>
       <c r="C20" t="n">
-        <v>37.94619809101396</v>
+        <v>37.68716377843243</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>28.99267749278586</v>
+        <v>29.00352172621084</v>
       </c>
       <c r="B21" t="n">
-        <v>20.61463990198934</v>
+        <v>20.72137582728896</v>
       </c>
       <c r="C21" t="n">
-        <v>39.52071110616409</v>
+        <v>39.13441474356576</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10.2541841480391</v>
+        <v>10.32008479892086</v>
       </c>
       <c r="B22" t="n">
-        <v>5.058719746034396</v>
+        <v>4.498811011462661</v>
       </c>
       <c r="C22" t="n">
-        <v>17.83233914993323</v>
+        <v>17.84377609444305</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>30.74297814709082</v>
+        <v>30.7184456876663</v>
       </c>
       <c r="B23" t="n">
-        <v>21.28209368037965</v>
+        <v>21.09564213582235</v>
       </c>
       <c r="C23" t="n">
-        <v>40.95466463060296</v>
+        <v>40.98512602876113</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>26.13894038537842</v>
+        <v>26.15277604508424</v>
       </c>
       <c r="B24" t="n">
-        <v>18.78718719614275</v>
+        <v>19.00166449813064</v>
       </c>
       <c r="C24" t="n">
-        <v>33.60473074793744</v>
+        <v>33.72279404297961</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>22.67631635905811</v>
+        <v>22.45743139137369</v>
       </c>
       <c r="B25" t="n">
-        <v>15.42669445118643</v>
+        <v>15.18403227171122</v>
       </c>
       <c r="C25" t="n">
-        <v>29.84681215690112</v>
+        <v>29.9728781276117</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>29.15411414895332</v>
+        <v>29.08172895045648</v>
       </c>
       <c r="B26" t="n">
-        <v>21.40195339351171</v>
+        <v>21.48128667914418</v>
       </c>
       <c r="C26" t="n">
-        <v>39.86155038736116</v>
+        <v>39.79328583225615</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>12.83145544264361</v>
+        <v>12.8528107335122</v>
       </c>
       <c r="B27" t="n">
-        <v>6.514334774513551</v>
+        <v>6.366208663950633</v>
       </c>
       <c r="C27" t="n">
-        <v>22.3100886232868</v>
+        <v>22.35732919842456</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>20.18455937486828</v>
+        <v>20.21135332901322</v>
       </c>
       <c r="B28" t="n">
-        <v>15.73770839019601</v>
+        <v>15.46136001639763</v>
       </c>
       <c r="C28" t="n">
-        <v>25.87329390211185</v>
+        <v>25.6784378468932</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>32.49456755240747</v>
+        <v>32.4907176783593</v>
       </c>
       <c r="B29" t="n">
-        <v>22.58628326630149</v>
+        <v>22.78856659037615</v>
       </c>
       <c r="C29" t="n">
-        <v>46.1423392899307</v>
+        <v>45.9409199178819</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>25.65001384701597</v>
+        <v>25.63160429653583</v>
       </c>
       <c r="B30" t="n">
-        <v>20.0710410280104</v>
+        <v>19.29800361316631</v>
       </c>
       <c r="C30" t="n">
-        <v>32.33762268282225</v>
+        <v>32.39483337421518</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>14.24348574592352</v>
+        <v>14.11299006136359</v>
       </c>
       <c r="B31" t="n">
-        <v>8.998479759303708</v>
+        <v>9.468160671614932</v>
       </c>
       <c r="C31" t="n">
-        <v>19.4439927419104</v>
+        <v>19.51187718578307</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>11.87910649796464</v>
+        <v>11.83841039793953</v>
       </c>
       <c r="B32" t="n">
-        <v>6.971439911216527</v>
+        <v>6.843350820844287</v>
       </c>
       <c r="C32" t="n">
-        <v>18.16645663683001</v>
+        <v>18.15829428916005</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>14.85946332955256</v>
+        <v>14.9126663498363</v>
       </c>
       <c r="B33" t="n">
-        <v>9.06579538964291</v>
+        <v>9.140409490426107</v>
       </c>
       <c r="C33" t="n">
-        <v>21.82106238783047</v>
+        <v>21.87543403599251</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>23.26135328603798</v>
+        <v>22.99966032146279</v>
       </c>
       <c r="B34" t="n">
-        <v>17.36379020053579</v>
+        <v>17.01734266543937</v>
       </c>
       <c r="C34" t="n">
-        <v>30.31827920991077</v>
+        <v>30.36593326389974</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>27.80250812505811</v>
+        <v>27.83191380176457</v>
       </c>
       <c r="B35" t="n">
-        <v>20.5531300702114</v>
+        <v>20.37563615980657</v>
       </c>
       <c r="C35" t="n">
-        <v>35.07080795697777</v>
+        <v>35.27962899662413</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>19.25326148381148</v>
+        <v>19.21681381218155</v>
       </c>
       <c r="B36" t="n">
-        <v>15.04589579032678</v>
+        <v>14.73727959639823</v>
       </c>
       <c r="C36" t="n">
-        <v>24.58320196005851</v>
+        <v>24.70863741987844</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>30.75878536653736</v>
+        <v>30.67830337994193</v>
       </c>
       <c r="B37" t="n">
-        <v>21.12741759512235</v>
+        <v>21.35295591150578</v>
       </c>
       <c r="C37" t="n">
-        <v>40.58341257735989</v>
+        <v>40.51957444987417</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>15.12823380618451</v>
+        <v>15.06629100716182</v>
       </c>
       <c r="B38" t="n">
-        <v>9.309594258302196</v>
+        <v>9.597162558172283</v>
       </c>
       <c r="C38" t="n">
-        <v>22.35999633014717</v>
+        <v>22.61564609847169</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>27.42831457690117</v>
+        <v>27.44616261027919</v>
       </c>
       <c r="B39" t="n">
-        <v>21.14836678852089</v>
+        <v>20.82179637369245</v>
       </c>
       <c r="C39" t="n">
-        <v>35.13489785837675</v>
+        <v>34.98637275057037</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>24.87526967344512</v>
+        <v>25.0341272051176</v>
       </c>
       <c r="B40" t="n">
-        <v>16.52330708896097</v>
+        <v>15.94980399383392</v>
       </c>
       <c r="C40" t="n">
-        <v>34.09921966030469</v>
+        <v>34.06441578255161</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>18.11763507500547</v>
+        <v>18.12467299610538</v>
       </c>
       <c r="B41" t="n">
-        <v>14.50306820503715</v>
+        <v>14.03729076394551</v>
       </c>
       <c r="C41" t="n">
-        <v>22.71396844482571</v>
+        <v>22.65718633788621</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>18.0454685173454</v>
+        <v>18.05405175132057</v>
       </c>
       <c r="B42" t="n">
-        <v>12.22475379160481</v>
+        <v>12.45314309420709</v>
       </c>
       <c r="C42" t="n">
-        <v>24.22837072618994</v>
+        <v>24.30188812837373</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>25.63843261537941</v>
+        <v>25.62376798132133</v>
       </c>
       <c r="B43" t="n">
-        <v>20.10291207028857</v>
+        <v>19.27880598353141</v>
       </c>
       <c r="C43" t="n">
-        <v>32.32787996496945</v>
+        <v>32.359567653879</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>15.87102284682028</v>
+        <v>15.83751587215647</v>
       </c>
       <c r="B44" t="n">
-        <v>12.34855583466491</v>
+        <v>12.37576138235381</v>
       </c>
       <c r="C44" t="n">
-        <v>19.95138308095491</v>
+        <v>19.776225454618</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>19.09570130288871</v>
+        <v>19.11362442153503</v>
       </c>
       <c r="B45" t="n">
-        <v>13.67146940701865</v>
+        <v>13.56084307645277</v>
       </c>
       <c r="C45" t="n">
-        <v>27.00502651687606</v>
+        <v>26.96463864426342</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>13.83102783412867</v>
+        <v>13.82464680342717</v>
       </c>
       <c r="B46" t="n">
-        <v>9.108703224443685</v>
+        <v>9.794669095079069</v>
       </c>
       <c r="C46" t="n">
-        <v>19.3203820483878</v>
+        <v>19.34444368245246</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>10.75103543437347</v>
+        <v>10.67978661526331</v>
       </c>
       <c r="B47" t="n">
-        <v>4.71801022826989</v>
+        <v>4.548455154323506</v>
       </c>
       <c r="C47" t="n">
-        <v>18.97712099267324</v>
+        <v>19.26959472406309</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>27.04277139685754</v>
+        <v>26.93256872099688</v>
       </c>
       <c r="B48" t="n">
-        <v>19.75405075978523</v>
+        <v>19.8519015347351</v>
       </c>
       <c r="C48" t="n">
-        <v>34.5715998735036</v>
+        <v>34.40756792008711</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>22.5979946889874</v>
+        <v>22.85890316152321</v>
       </c>
       <c r="B49" t="n">
-        <v>14.83046564471011</v>
+        <v>15.4958078097452</v>
       </c>
       <c r="C49" t="n">
-        <v>31.3443542463889</v>
+        <v>31.43089091686594</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>30.79446243319086</v>
+        <v>30.44638089347023</v>
       </c>
       <c r="B50" t="n">
-        <v>20.99438229989558</v>
+        <v>21.060365972208</v>
       </c>
       <c r="C50" t="n">
-        <v>39.86957713450531</v>
+        <v>40.37207822577744</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>20.19665519407964</v>
+        <v>20.27286043664231</v>
       </c>
       <c r="B51" t="n">
-        <v>13.09697256346379</v>
+        <v>12.86254066618309</v>
       </c>
       <c r="C51" t="n">
-        <v>28.66989245637108</v>
+        <v>28.75777648677797</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>13.55505964894011</v>
+        <v>13.56449833703462</v>
       </c>
       <c r="B52" t="n">
-        <v>9.17980688652348</v>
+        <v>9.409689999962877</v>
       </c>
       <c r="C52" t="n">
-        <v>18.15013359979239</v>
+        <v>18.20917938181911</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>27.61912697978751</v>
+        <v>27.60136401762282</v>
       </c>
       <c r="B53" t="n">
-        <v>22.32631957819466</v>
+        <v>21.02033799843995</v>
       </c>
       <c r="C53" t="n">
-        <v>34.9137403449322</v>
+        <v>34.79312091034125</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>28.99407515515302</v>
+        <v>29.14636431374536</v>
       </c>
       <c r="B54" t="n">
-        <v>20.31577029932199</v>
+        <v>20.03495732441929</v>
       </c>
       <c r="C54" t="n">
-        <v>40.31181693798988</v>
+        <v>40.35363914951202</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>29.03966608858522</v>
+        <v>29.2882427189699</v>
       </c>
       <c r="B55" t="n">
-        <v>20.50642449192137</v>
+        <v>21.25126233084593</v>
       </c>
       <c r="C55" t="n">
-        <v>39.67133612744657</v>
+        <v>39.56866907565718</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>14.01412900559301</v>
+        <v>13.98800543761862</v>
       </c>
       <c r="B56" t="n">
-        <v>8.983742168473496</v>
+        <v>8.947002003382984</v>
       </c>
       <c r="C56" t="n">
-        <v>19.96615727739145</v>
+        <v>20.02712308552932</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>11.73771195922248</v>
+        <v>11.65924032262891</v>
       </c>
       <c r="B57" t="n">
-        <v>6.662580045147886</v>
+        <v>6.433172718648613</v>
       </c>
       <c r="C57" t="n">
-        <v>18.09368969082091</v>
+        <v>18.14211700349625</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>30.71060954913685</v>
+        <v>30.64940940306926</v>
       </c>
       <c r="B58" t="n">
-        <v>21.54711270660572</v>
+        <v>21.70027910292186</v>
       </c>
       <c r="C58" t="n">
-        <v>40.44822814757315</v>
+        <v>40.58657261388718</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>17.11632338835598</v>
+        <v>17.14496354569453</v>
       </c>
       <c r="B59" t="n">
-        <v>12.42807613435089</v>
+        <v>12.47483167243192</v>
       </c>
       <c r="C59" t="n">
-        <v>22.5586250271104</v>
+        <v>22.62389549066331</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>30.85000843629658</v>
+        <v>30.78066905074913</v>
       </c>
       <c r="B60" t="n">
-        <v>20.69277559866414</v>
+        <v>20.78281140156295</v>
       </c>
       <c r="C60" t="n">
-        <v>40.28496796806055</v>
+        <v>41.22750849418951</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>14.8587851414055</v>
+        <v>14.88887767298378</v>
       </c>
       <c r="B61" t="n">
-        <v>8.864156093252616</v>
+        <v>8.956208354713194</v>
       </c>
       <c r="C61" t="n">
-        <v>21.81233502318365</v>
+        <v>21.5291395500169</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>18.06539873036501</v>
+        <v>18.15744150789238</v>
       </c>
       <c r="B62" t="n">
-        <v>12.10540470517068</v>
+        <v>12.2219941712868</v>
       </c>
       <c r="C62" t="n">
-        <v>23.68169408150814</v>
+        <v>23.75494338694534</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>15.5832282622903</v>
+        <v>15.51865398730565</v>
       </c>
       <c r="B63" t="n">
-        <v>8.959173760938588</v>
+        <v>9.163914493173362</v>
       </c>
       <c r="C63" t="n">
-        <v>23.55264599740506</v>
+        <v>24.26763918575239</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>30.80556674252408</v>
+        <v>30.80614208825699</v>
       </c>
       <c r="B64" t="n">
-        <v>20.91766385669221</v>
+        <v>20.98210853597818</v>
       </c>
       <c r="C64" t="n">
-        <v>41.00839812213756</v>
+        <v>41.47477835015054</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>11.65858969450079</v>
+        <v>11.64327464967391</v>
       </c>
       <c r="B65" t="n">
-        <v>6.673655744106933</v>
+        <v>6.517848784635598</v>
       </c>
       <c r="C65" t="n">
-        <v>17.24311905319186</v>
+        <v>17.43128550329988</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>22.76972688002416</v>
+        <v>22.83227520420498</v>
       </c>
       <c r="B66" t="n">
-        <v>16.7778532268517</v>
+        <v>16.54607797094488</v>
       </c>
       <c r="C66" t="n">
-        <v>30.01550140635695</v>
+        <v>30.25611285310313</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>21.80474572292768</v>
+        <v>21.79938783336812</v>
       </c>
       <c r="B67" t="n">
-        <v>16.54980585769636</v>
+        <v>16.27595422422494</v>
       </c>
       <c r="C67" t="n">
-        <v>27.7722464269501</v>
+        <v>27.89719036215173</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>26.95698728728985</v>
+        <v>27.02215455973724</v>
       </c>
       <c r="B68" t="n">
-        <v>18.81129990216872</v>
+        <v>19.24379904401171</v>
       </c>
       <c r="C68" t="n">
-        <v>36.1639157590642</v>
+        <v>35.66485360800263</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>10.77144093672512</v>
+        <v>10.93453536212381</v>
       </c>
       <c r="B69" t="n">
-        <v>5.037323440912261</v>
+        <v>5.323063163768153</v>
       </c>
       <c r="C69" t="n">
-        <v>19.75027011694356</v>
+        <v>19.79054120260843</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>24.83482935799606</v>
+        <v>24.85816931912767</v>
       </c>
       <c r="B70" t="n">
-        <v>16.66366650385772</v>
+        <v>16.30821597230861</v>
       </c>
       <c r="C70" t="n">
-        <v>34.25747131916352</v>
+        <v>34.5592510836908</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>19.77851445639676</v>
+        <v>19.76938926921078</v>
       </c>
       <c r="B71" t="n">
-        <v>14.39059228829236</v>
+        <v>14.550934979648</v>
       </c>
       <c r="C71" t="n">
-        <v>25.62911937026434</v>
+        <v>25.56935208302299</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>22.907067544102</v>
+        <v>22.95537583904342</v>
       </c>
       <c r="B72" t="n">
-        <v>17.54543972324596</v>
+        <v>17.39938096330207</v>
       </c>
       <c r="C72" t="n">
-        <v>28.4297224345897</v>
+        <v>28.47600063475871</v>
       </c>
     </row>
   </sheetData>
